--- a/cc1.xlsx
+++ b/cc1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kiruthika U\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7BE15B5-F2C0-4A7E-B7E7-16C50B2A7257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528114BF-6970-4A67-B646-2991E637B7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BE67C5AF-7129-40F0-ABEE-FCAB2451BA40}"/>
+    <workbookView minimized="1" xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{BE67C5AF-7129-40F0-ABEE-FCAB2451BA40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>Grocery</t>
   </si>
@@ -88,13 +88,94 @@
   </si>
   <si>
     <t>page should load within few seconds</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
+    <t>TC8</t>
+  </si>
+  <si>
+    <t>there should be ratings of the mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">features option </t>
+  </si>
+  <si>
+    <t>camera clarity should be mentioned</t>
+  </si>
+  <si>
+    <t>Appliance Selection</t>
+  </si>
+  <si>
+    <t>Appliance</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>TC9</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>TC11</t>
+  </si>
+  <si>
+    <t>TC12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when clicked arrow mark of right that should be navigated </t>
+  </si>
+  <si>
+    <t>back to top option</t>
+  </si>
+  <si>
+    <t>when clicked price hightolow that should be worked</t>
+  </si>
+  <si>
+    <t>when scrolled down that should be scrolled</t>
+  </si>
+  <si>
+    <t>when price is clicked someother page should be opened</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,13 +183,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -123,8 +218,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CFB8FC-A758-4F99-B243-8B05FC2114D9}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,37 +552,54 @@
     <col min="2" max="2" width="17.88671875" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" customWidth="1"/>
     <col min="4" max="4" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
-      </c>
-      <c r="B3">
-        <v>1.1000000000000001</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -493,7 +611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>10</v>
       </c>
@@ -504,7 +622,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>12</v>
       </c>
@@ -515,7 +633,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -524,6 +642,180 @@
       </c>
       <c r="E6" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
